--- a/rf_cf.xlsx
+++ b/rf_cf.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremyjiang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremyjiang/Desktop/SRIP/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="-6840" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="bug" sheetId="1" r:id="rId1"/>
+    <sheet name="param00-04 graph" sheetId="3" r:id="rId2"/>
+    <sheet name="param00-04" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
   <si>
     <t>RF_fasttree80</t>
   </si>
@@ -84,320 +85,26 @@
     <t>CF_corrected</t>
   </si>
   <si>
-    <r>
-      <t>0.897</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF005CC5"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>0.905025</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF005CC5"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>0.92072</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF005CC5"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>0.905995</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF005CC5"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>0.909815</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF005CC5"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>0.88575</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF005CC5"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>0.91898</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF005CC5"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>0.90547</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF005CC5"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>0.91822</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF005CC5"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>0.8837</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF005CC5"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>0.901105</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF005CC5"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>0.93532</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF005CC5"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>0.8977</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF005CC5"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>0.90765</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF005CC5"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>0.915855</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF005CC5"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>0.91843</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF005CC5"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>0.90247</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF005CC5"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>0.91111</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF005CC5"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>0.910415</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF005CC5"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>0.8968</t>
-    </r>
+    <t>r=0.01</t>
+  </si>
+  <si>
+    <t>r=1</t>
+  </si>
+  <si>
+    <t>r=0.1</t>
+  </si>
+  <si>
+    <t>r=0.001</t>
+  </si>
+  <si>
+    <t>r=0.0001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -420,16 +127,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF005CC5"/>
-      <name val="Consolas"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF24292E"/>
-      <name val="Consolas"/>
     </font>
   </fonts>
   <fills count="2">
@@ -456,9 +153,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -563,7 +259,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>bug!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -586,7 +282,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>bug!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -610,7 +306,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:f>bug!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -639,7 +335,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>bug!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -663,7 +359,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>bug!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -687,7 +383,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:f>bug!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -716,7 +412,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>bug!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -739,7 +435,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>bug!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -763,7 +459,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$6</c:f>
+              <c:f>bug!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -792,7 +488,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>bug!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -815,7 +511,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>bug!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -839,7 +535,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:f>bug!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -868,7 +564,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>bug!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -891,7 +587,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>bug!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -915,7 +611,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$6</c:f>
+              <c:f>bug!$F$2:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -944,7 +640,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>bug!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -967,7 +663,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>bug!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -991,7 +687,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$6</c:f>
+              <c:f>bug!$G$2:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1020,7 +716,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>bug!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1045,7 +741,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>bug!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1069,7 +765,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$6</c:f>
+              <c:f>bug!$H$2:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1098,7 +794,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
+              <c:f>bug!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1124,7 +820,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>bug!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1148,7 +844,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$6</c:f>
+              <c:f>bug!$I$2:$I$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1177,7 +873,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$1</c:f>
+              <c:f>bug!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1187,11 +883,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="88900" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1202,7 +896,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>bug!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1226,7 +920,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$6</c:f>
+              <c:f>bug!$J$2:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1259,11 +953,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2126273488"/>
-        <c:axId val="-2105848224"/>
+        <c:axId val="2079204496"/>
+        <c:axId val="2079207824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2126273488"/>
+        <c:axId val="2079204496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1306,7 +1000,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2105848224"/>
+        <c:crossAx val="2079207824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1314,7 +1008,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2105848224"/>
+        <c:axId val="2079207824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1365,7 +1059,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2126273488"/>
+        <c:crossAx val="2079204496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1541,7 +1235,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$1</c:f>
+              <c:f>bug!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1564,7 +1258,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>bug!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1588,7 +1282,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$2:$K$6</c:f>
+              <c:f>bug!$K$2:$K$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1617,7 +1311,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$1</c:f>
+              <c:f>bug!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1640,7 +1334,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>bug!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1664,7 +1358,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$2:$L$6</c:f>
+              <c:f>bug!$L$2:$L$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1693,7 +1387,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$1</c:f>
+              <c:f>bug!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1716,7 +1410,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>bug!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1740,7 +1434,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$2:$M$6</c:f>
+              <c:f>bug!$M$2:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1769,7 +1463,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$1</c:f>
+              <c:f>bug!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1792,7 +1486,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>bug!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1816,7 +1510,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$6</c:f>
+              <c:f>bug!$N$2:$N$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1845,7 +1539,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$1</c:f>
+              <c:f>bug!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1869,7 +1563,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>bug!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1893,7 +1587,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$6</c:f>
+              <c:f>bug!$O$2:$O$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1922,7 +1616,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$1</c:f>
+              <c:f>bug!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1945,7 +1639,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>bug!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1969,7 +1663,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$6</c:f>
+              <c:f>bug!$P$2:$P$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1998,7 +1692,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$1</c:f>
+              <c:f>bug!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2024,7 +1718,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>bug!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2048,7 +1742,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$6</c:f>
+              <c:f>bug!$Q$2:$Q$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2077,7 +1771,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$R$1</c:f>
+              <c:f>bug!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2103,7 +1797,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>bug!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2127,7 +1821,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$6</c:f>
+              <c:f>bug!$R$2:$R$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2156,7 +1850,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$S$1</c:f>
+              <c:f>bug!$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2181,7 +1875,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>bug!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2205,7 +1899,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$S$2:$S$6</c:f>
+              <c:f>bug!$S$2:$S$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2234,7 +1928,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$T$1</c:f>
+              <c:f>bug!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2259,7 +1953,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>bug!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2283,7 +1977,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$2:$T$6</c:f>
+              <c:f>bug!$T$2:$T$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2316,11 +2010,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2109358864"/>
-        <c:axId val="-2136723920"/>
+        <c:axId val="2102194064"/>
+        <c:axId val="2102197376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2109358864"/>
+        <c:axId val="2102194064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2363,7 +2057,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2136723920"/>
+        <c:crossAx val="2102197376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2371,7 +2065,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2136723920"/>
+        <c:axId val="2102197376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2422,7 +2116,2007 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2109358864"/>
+        <c:crossAx val="2102194064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>RF vs r</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'param00-04 graph'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RF_fasttree80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'param00-04 graph'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'param00-04 graph'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.91261075</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7219475</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44421</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23228</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15754</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'param00-04 graph'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RF_true_fasttree80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'param00-04 graph'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'param00-04 graph'!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.57757</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0694375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01278</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'param00-04 graph'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RF_fasttree90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'param00-04 graph'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'param00-04 graph'!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.917066</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72764</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.464905</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2674675</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18819</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'param00-04 graph'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RF_true_fasttree90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'param00-04 graph'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'param00-04 graph'!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.06373</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03752</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02585</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0182</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'param00-04 graph'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RF_raxml80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'param00-04 graph'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'param00-04 graph'!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.897301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.702735</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.436075</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22932</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.158045</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'param00-04 graph'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RF_true_raxml80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'param00-04 graph'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'param00-04 graph'!$G$2:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5188475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.189465</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.054005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0175825</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.012725</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'param00-04 graph'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RF_raxml90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'param00-04 graph'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'param00-04 graph'!$H$2:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.912157</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.723685</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4572875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2680675</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1885425</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'param00-04 graph'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RF_true_raxml90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'param00-04 graph'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'param00-04 graph'!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1010325</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0527975</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0305025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.024652</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0178925</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'param00-04 graph'!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RF_before</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'param00-04 graph'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'param00-04 graph'!$R$2:$R$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2116967264"/>
+        <c:axId val="-2139711696"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2116967264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2139711696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2139711696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2116967264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CF vs r</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'param00-04 graph'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CF_fasttree80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'param00-04 graph'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'param00-04 graph'!$J$2:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1539</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16045</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17965</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2457</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3264</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'param00-04 graph'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CF_true_fasttree80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'param00-04 graph'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'param00-04 graph'!$K$2:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.08995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.06795</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1029</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.224</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3306</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'param00-04 graph'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CF_fasttree90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'param00-04 graph'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'param00-04 graph'!$L$2:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0364</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0806</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1517</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2422</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3228</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'param00-04 graph'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CF_true_fasttree90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'param00-04 graph'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'param00-04 graph'!$M$2:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.001645</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0318</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.09055</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32825</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'param00-04 graph'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CF_raxml80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'param00-04 graph'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'param00-04 graph'!$N$2:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1542</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1545</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1789</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24575</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'param00-04 graph'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CF_true_raxml80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'param00-04 graph'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'param00-04 graph'!$O$2:$O$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0854</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'param00-04 graph'!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CF_raxml90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'param00-04 graph'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'param00-04 graph'!$P$2:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.03315</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0765</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2425</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32145</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'param00-04 graph'!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CF_true_raxml90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'param00-04 graph'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'param00-04 graph'!$Q$2:$Q$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.01465</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0307</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2209</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32835</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'param00-04 graph'!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CF_theoretical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'param00-04 graph'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'param00-04 graph'!$S$2:$S$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'param00-04 graph'!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CF_corrected</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'param00-04 graph'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'param00-04 graph'!$T$2:$T$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2141618000"/>
+        <c:axId val="-2142215376"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2141618000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2142215376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2142215376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2141618000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2583,6 +4277,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3100,6 +4874,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3716,6 +6522,71 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>195388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>364787</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>54043</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>87787</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95404</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>771362</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>78864</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3989,8 +6860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="O53" sqref="O53"/>
+    <sheetView zoomScale="50" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="R54" sqref="R54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4388,149 +7259,3541 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="134" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" customWidth="1"/>
+    <col min="13" max="13" width="18" customWidth="1"/>
+    <col min="15" max="15" width="17.5" customWidth="1"/>
+    <col min="17" max="17" width="15.5" customWidth="1"/>
+    <col min="18" max="18" width="11.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1E-4</v>
+      </c>
+      <c r="B2">
+        <v>0.9126107499999998</v>
+      </c>
+      <c r="C2">
+        <v>0.57757000000000003</v>
+      </c>
+      <c r="D2">
+        <v>0.91706599999999994</v>
+      </c>
+      <c r="E2">
+        <v>0.17</v>
+      </c>
+      <c r="F2">
+        <v>0.89730100000000024</v>
+      </c>
+      <c r="G2">
+        <v>0.51884750000000002</v>
+      </c>
+      <c r="H2">
+        <v>0.912157</v>
+      </c>
+      <c r="I2">
+        <v>0.1010325</v>
+      </c>
+      <c r="J2">
+        <v>0.15390000000000001</v>
+      </c>
+      <c r="K2">
+        <v>8.9950000000000002E-2</v>
+      </c>
+      <c r="L2">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="M2">
+        <v>1.645E-3</v>
+      </c>
+      <c r="N2">
+        <v>0.15419999999999998</v>
+      </c>
+      <c r="O2">
+        <v>8.5400000000000004E-2</v>
+      </c>
+      <c r="P2">
+        <v>3.3149999999999999E-2</v>
+      </c>
+      <c r="Q2">
+        <v>1.465E-2</v>
+      </c>
+      <c r="R2">
+        <v>0.9</v>
+      </c>
+      <c r="S2">
+        <v>0.01</v>
+      </c>
+      <c r="T2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1E-3</v>
+      </c>
+      <c r="B3">
+        <v>0.72194749999999996</v>
+      </c>
+      <c r="C3">
+        <v>0.24429999999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.72763999999999984</v>
+      </c>
+      <c r="E3">
+        <v>6.3729999999999995E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.70273499999999989</v>
+      </c>
+      <c r="G3">
+        <v>0.18946499999999999</v>
+      </c>
+      <c r="H3">
+        <v>0.72368500000000002</v>
+      </c>
+      <c r="I3">
+        <v>5.2797499999999997E-2</v>
+      </c>
+      <c r="J3">
+        <v>0.16044999999999998</v>
+      </c>
+      <c r="K3">
+        <v>6.7949999999999997E-2</v>
+      </c>
+      <c r="L3">
+        <v>8.0599999999999991E-2</v>
+      </c>
+      <c r="M3">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="N3">
+        <v>0.1545</v>
+      </c>
+      <c r="O3">
+        <v>6.25E-2</v>
+      </c>
+      <c r="P3">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="Q3">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="R3">
+        <v>0.65</v>
+      </c>
+      <c r="S3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="T3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.01</v>
+      </c>
+      <c r="B4">
+        <v>0.44420999999999999</v>
+      </c>
+      <c r="C4">
+        <v>6.9437499999999999E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.46490500000000001</v>
+      </c>
+      <c r="E4">
+        <v>3.7519999999999998E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.43607500000000005</v>
+      </c>
+      <c r="G4">
+        <v>5.4004999999999997E-2</v>
+      </c>
+      <c r="H4">
+        <v>0.45728749999999996</v>
+      </c>
+      <c r="I4">
+        <v>3.0502499999999998E-2</v>
+      </c>
+      <c r="J4">
+        <v>0.17965</v>
+      </c>
+      <c r="K4">
+        <v>0.10290000000000001</v>
+      </c>
+      <c r="L4">
+        <v>0.1517</v>
+      </c>
+      <c r="M4">
+        <v>9.0550000000000005E-2</v>
+      </c>
+      <c r="N4">
+        <v>0.1789</v>
+      </c>
+      <c r="O4">
+        <v>0.10145</v>
+      </c>
+      <c r="P4">
+        <v>0.15134999999999998</v>
+      </c>
+      <c r="Q4">
+        <v>0.09</v>
+      </c>
+      <c r="R4">
+        <v>0.37</v>
+      </c>
+      <c r="S4">
+        <v>0.09</v>
+      </c>
+      <c r="T4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.1</v>
+      </c>
+      <c r="B5">
+        <v>0.23228000000000004</v>
+      </c>
+      <c r="C5">
+        <v>0.02</v>
+      </c>
+      <c r="D5">
+        <v>0.26746749999999997</v>
+      </c>
+      <c r="E5">
+        <v>2.5850000000000001E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.22931999999999997</v>
+      </c>
+      <c r="G5">
+        <v>1.7582500000000001E-2</v>
+      </c>
+      <c r="H5">
+        <v>0.26806750000000001</v>
+      </c>
+      <c r="I5">
+        <v>2.4652E-2</v>
+      </c>
+      <c r="J5">
+        <v>0.2457</v>
+      </c>
+      <c r="K5">
+        <v>0.224</v>
+      </c>
+      <c r="L5">
+        <v>0.2422</v>
+      </c>
+      <c r="M5">
+        <v>0.22075</v>
+      </c>
+      <c r="N5">
+        <v>0.24575</v>
+      </c>
+      <c r="O5">
+        <v>0.22445000000000001</v>
+      </c>
+      <c r="P5">
+        <v>0.24249999999999999</v>
+      </c>
+      <c r="Q5">
+        <v>0.22090000000000001</v>
+      </c>
+      <c r="R5">
+        <v>0.18</v>
+      </c>
+      <c r="S5">
+        <v>0.2</v>
+      </c>
+      <c r="T5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0.15753999999999999</v>
+      </c>
+      <c r="C6">
+        <v>1.278E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.18819000000000002</v>
+      </c>
+      <c r="E6">
+        <v>1.8200000000000001E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.15804499999999999</v>
+      </c>
+      <c r="G6">
+        <v>1.2725E-2</v>
+      </c>
+      <c r="H6">
+        <v>0.1885425</v>
+      </c>
+      <c r="I6">
+        <v>1.7892499999999999E-2</v>
+      </c>
+      <c r="J6">
+        <v>0.32639999999999997</v>
+      </c>
+      <c r="K6">
+        <v>0.3306</v>
+      </c>
+      <c r="L6">
+        <v>0.32280000000000003</v>
+      </c>
+      <c r="M6">
+        <v>0.32824999999999999</v>
+      </c>
+      <c r="N6">
+        <v>0.32550000000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.33</v>
+      </c>
+      <c r="P6">
+        <v>0.32145000000000001</v>
+      </c>
+      <c r="Q6">
+        <v>0.32834999999999998</v>
+      </c>
+      <c r="R6">
+        <v>0.1</v>
+      </c>
+      <c r="S6">
+        <v>0.32</v>
+      </c>
+      <c r="T6">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I114"/>
+  <sheetViews>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E65" sqref="E65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="9" max="9" width="19.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0.89700000000000002</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0.90502499999999997</v>
+        <v>0.43559999999999999</v>
       </c>
       <c r="C2">
-        <v>0.92071999999999998</v>
+        <v>0.46065</v>
       </c>
       <c r="D2">
-        <v>0.90599499999999999</v>
+        <v>0.41249999999999998</v>
       </c>
       <c r="E2">
-        <v>0.90981500000000004</v>
+        <v>0.45865</v>
       </c>
       <c r="F2">
+        <v>183</v>
+      </c>
+      <c r="G2">
+        <v>166</v>
+      </c>
+      <c r="H2">
+        <v>179</v>
+      </c>
+      <c r="I2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.44740000000000002</v>
+      </c>
+      <c r="C3">
+        <v>0.45190000000000002</v>
+      </c>
+      <c r="D3">
+        <v>0.4279</v>
+      </c>
+      <c r="E3">
+        <v>0.44290000000000002</v>
+      </c>
+      <c r="F3">
+        <v>181</v>
+      </c>
+      <c r="G3">
+        <v>158</v>
+      </c>
+      <c r="H3">
+        <v>181</v>
+      </c>
+      <c r="I3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.4128</v>
+      </c>
+      <c r="C4">
+        <v>0.45440000000000003</v>
+      </c>
+      <c r="D4">
+        <v>0.42230000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.44540000000000002</v>
+      </c>
+      <c r="F4">
+        <v>175</v>
+      </c>
+      <c r="G4">
+        <v>151</v>
+      </c>
+      <c r="H4">
+        <v>188</v>
+      </c>
+      <c r="I4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.47239999999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.48049999999999998</v>
+      </c>
+      <c r="D5">
+        <v>0.45290000000000002</v>
+      </c>
+      <c r="E5">
+        <v>0.46089999999999998</v>
+      </c>
+      <c r="F5">
+        <v>178</v>
+      </c>
+      <c r="G5">
+        <v>151</v>
+      </c>
+      <c r="H5">
+        <v>185</v>
+      </c>
+      <c r="I5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.45915</v>
+      </c>
+      <c r="C6">
+        <v>0.47820000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.42609999999999998</v>
+      </c>
+      <c r="E6">
+        <v>0.45115</v>
+      </c>
+      <c r="F6">
+        <v>179</v>
+      </c>
+      <c r="G6">
+        <v>140</v>
+      </c>
+      <c r="H6">
+        <v>173</v>
+      </c>
+      <c r="I6">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.41649999999999998</v>
+      </c>
+      <c r="C7">
+        <v>0.45065</v>
+      </c>
+      <c r="D7">
+        <v>0.42659999999999998</v>
+      </c>
+      <c r="E7">
+        <v>0.45965</v>
+      </c>
+      <c r="F7">
+        <v>174</v>
+      </c>
+      <c r="G7">
+        <v>150</v>
+      </c>
+      <c r="H7">
+        <v>177</v>
+      </c>
+      <c r="I7">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.46165</v>
+      </c>
+      <c r="C8">
+        <v>0.45965</v>
+      </c>
+      <c r="D8">
+        <v>0.4486</v>
+      </c>
+      <c r="E8">
+        <v>0.47065000000000001</v>
+      </c>
+      <c r="F8">
+        <v>177</v>
+      </c>
+      <c r="G8">
+        <v>153</v>
+      </c>
+      <c r="H8">
+        <v>189</v>
+      </c>
+      <c r="I8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.43959999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.44109999999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.42609999999999998</v>
+      </c>
+      <c r="E9">
+        <v>0.44009999999999999</v>
+      </c>
+      <c r="F9">
+        <v>198</v>
+      </c>
+      <c r="G9">
+        <v>155</v>
+      </c>
+      <c r="H9">
+        <v>175</v>
+      </c>
+      <c r="I9">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.45540000000000003</v>
+      </c>
+      <c r="C10">
+        <v>0.46739999999999998</v>
+      </c>
+      <c r="D10">
+        <v>0.4284</v>
+      </c>
+      <c r="E10">
+        <v>0.44840000000000002</v>
+      </c>
+      <c r="F10">
+        <v>182</v>
+      </c>
+      <c r="G10">
+        <v>148</v>
+      </c>
+      <c r="H10">
+        <v>171</v>
+      </c>
+      <c r="I10">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.45014999999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.46515000000000001</v>
+      </c>
+      <c r="D11">
+        <v>0.43909999999999999</v>
+      </c>
+      <c r="E11">
+        <v>0.45315</v>
+      </c>
+      <c r="F11">
+        <v>177</v>
+      </c>
+      <c r="G11">
+        <v>167</v>
+      </c>
+      <c r="H11">
+        <v>177</v>
+      </c>
+      <c r="I11">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.4476</v>
+      </c>
+      <c r="C12">
+        <v>0.45565</v>
+      </c>
+      <c r="D12">
+        <v>0.43459999999999999</v>
+      </c>
+      <c r="E12">
+        <v>0.48070000000000002</v>
+      </c>
+      <c r="F12">
+        <v>175</v>
+      </c>
+      <c r="G12">
+        <v>145</v>
+      </c>
+      <c r="H12">
+        <v>191</v>
+      </c>
+      <c r="I12">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.46965000000000001</v>
+      </c>
+      <c r="C13">
+        <v>0.51075000000000004</v>
+      </c>
+      <c r="D13">
+        <v>0.45565</v>
+      </c>
+      <c r="E13">
+        <v>0.51024999999999998</v>
+      </c>
+      <c r="F13">
+        <v>189</v>
+      </c>
+      <c r="G13">
+        <v>154</v>
+      </c>
+      <c r="H13">
+        <v>175</v>
+      </c>
+      <c r="I13">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.41804999999999998</v>
+      </c>
+      <c r="C14">
+        <v>0.44409999999999999</v>
+      </c>
+      <c r="D14">
+        <v>0.41754999999999998</v>
+      </c>
+      <c r="E14">
+        <v>0.43459999999999999</v>
+      </c>
+      <c r="F14">
+        <v>174</v>
+      </c>
+      <c r="G14">
+        <v>140</v>
+      </c>
+      <c r="H14">
+        <v>166</v>
+      </c>
+      <c r="I14">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.45165</v>
+      </c>
+      <c r="C15">
+        <v>0.46065</v>
+      </c>
+      <c r="D15">
+        <v>0.43859999999999999</v>
+      </c>
+      <c r="E15">
+        <v>0.4486</v>
+      </c>
+      <c r="F15">
+        <v>178</v>
+      </c>
+      <c r="G15">
+        <v>144</v>
+      </c>
+      <c r="H15">
+        <v>189</v>
+      </c>
+      <c r="I15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.42609999999999998</v>
+      </c>
+      <c r="C16">
+        <v>0.45014999999999999</v>
+      </c>
+      <c r="D16">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="E16">
+        <v>0.45415</v>
+      </c>
+      <c r="F16">
+        <v>170</v>
+      </c>
+      <c r="G16">
+        <v>146</v>
+      </c>
+      <c r="H16">
+        <v>170</v>
+      </c>
+      <c r="I16">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.45090000000000002</v>
+      </c>
+      <c r="C17">
+        <v>0.47089999999999999</v>
+      </c>
+      <c r="D17">
+        <v>0.45989999999999998</v>
+      </c>
+      <c r="E17">
+        <v>0.46889999999999998</v>
+      </c>
+      <c r="F17">
+        <v>182</v>
+      </c>
+      <c r="G17">
+        <v>148</v>
+      </c>
+      <c r="H17">
+        <v>183</v>
+      </c>
+      <c r="I17">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.44490000000000002</v>
+      </c>
+      <c r="C18">
+        <v>0.48049999999999998</v>
+      </c>
+      <c r="D18">
+        <v>0.4294</v>
+      </c>
+      <c r="E18">
+        <v>0.47239999999999999</v>
+      </c>
+      <c r="F18">
+        <v>178</v>
+      </c>
+      <c r="G18">
+        <v>154</v>
+      </c>
+      <c r="H18">
+        <v>172</v>
+      </c>
+      <c r="I18">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.46489999999999998</v>
+      </c>
+      <c r="C19">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="D19">
+        <v>0.48549999999999999</v>
+      </c>
+      <c r="E19">
+        <v>0.47089999999999999</v>
+      </c>
+      <c r="F19">
+        <v>170</v>
+      </c>
+      <c r="G19">
+        <v>142</v>
+      </c>
+      <c r="H19">
+        <v>177</v>
+      </c>
+      <c r="I19">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.4264</v>
+      </c>
+      <c r="C20">
+        <v>0.45839999999999997</v>
+      </c>
+      <c r="D20">
+        <v>0.4274</v>
+      </c>
+      <c r="E20">
+        <v>0.4289</v>
+      </c>
+      <c r="F20">
+        <v>196</v>
+      </c>
+      <c r="G20">
+        <v>169</v>
+      </c>
+      <c r="H20">
+        <v>186</v>
+      </c>
+      <c r="I20">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.43340000000000001</v>
+      </c>
+      <c r="C21">
+        <v>0.47339999999999999</v>
+      </c>
+      <c r="D21">
+        <v>0.44840000000000002</v>
+      </c>
+      <c r="E21">
+        <v>0.44540000000000002</v>
+      </c>
+      <c r="F21">
+        <v>177</v>
+      </c>
+      <c r="G21">
+        <v>153</v>
+      </c>
+      <c r="H21">
+        <v>174</v>
+      </c>
+      <c r="I21">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <f>AVERAGE(B2:B21)</f>
+        <v>0.44420999999999999</v>
+      </c>
+      <c r="C22">
+        <f>AVERAGE(C2:C21)</f>
+        <v>0.46490500000000001</v>
+      </c>
+      <c r="D22">
+        <f>AVERAGE(D2:D21)</f>
+        <v>0.43607500000000005</v>
+      </c>
+      <c r="E22">
+        <f>AVERAGE(E2:E21)</f>
+        <v>0.45728749999999996</v>
+      </c>
+      <c r="F22">
+        <f>AVERAGE(F2:F21)/1000</f>
+        <v>0.17965</v>
+      </c>
+      <c r="G22">
+        <f>AVERAGE(G2:G21)/1000</f>
+        <v>0.1517</v>
+      </c>
+      <c r="H22">
+        <f>AVERAGE(H2:H21)/1000</f>
+        <v>0.1789</v>
+      </c>
+      <c r="I22">
+        <f>AVERAGE(I2:I21)/1000</f>
+        <v>0.15134999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>0.14829999999999999</v>
+      </c>
+      <c r="C25">
+        <v>0.17030000000000001</v>
+      </c>
+      <c r="D25">
+        <v>0.1573</v>
+      </c>
+      <c r="E25">
+        <v>0.1774</v>
+      </c>
+      <c r="F25">
+        <v>328</v>
+      </c>
+      <c r="G25">
+        <v>330</v>
+      </c>
+      <c r="H25">
+        <v>328</v>
+      </c>
+      <c r="I25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>0.17030000000000001</v>
+      </c>
+      <c r="C26">
+        <v>0.19839999999999999</v>
+      </c>
+      <c r="D26">
+        <v>0.1638</v>
+      </c>
+      <c r="E26">
+        <v>0.19189999999999999</v>
+      </c>
+      <c r="F26">
+        <v>323</v>
+      </c>
+      <c r="G26">
+        <v>320</v>
+      </c>
+      <c r="H26">
+        <v>317</v>
+      </c>
+      <c r="I26">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>0.1583</v>
+      </c>
+      <c r="C27">
+        <v>0.1794</v>
+      </c>
+      <c r="D27">
+        <v>0.1613</v>
+      </c>
+      <c r="E27">
+        <v>0.19040000000000001</v>
+      </c>
+      <c r="F27">
+        <v>328</v>
+      </c>
+      <c r="G27">
+        <v>325</v>
+      </c>
+      <c r="H27">
+        <v>328</v>
+      </c>
+      <c r="I27">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>0.1573</v>
+      </c>
+      <c r="C28">
+        <v>0.2039</v>
+      </c>
+      <c r="D28">
+        <v>0.15679999999999999</v>
+      </c>
+      <c r="E28">
+        <v>0.18390000000000001</v>
+      </c>
+      <c r="F28">
+        <v>332</v>
+      </c>
+      <c r="G28">
+        <v>326</v>
+      </c>
+      <c r="H28">
+        <v>331</v>
+      </c>
+      <c r="I28">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>0.1343</v>
+      </c>
+      <c r="C29">
+        <v>0.1794</v>
+      </c>
+      <c r="D29">
+        <v>0.14180000000000001</v>
+      </c>
+      <c r="E29">
+        <v>0.1764</v>
+      </c>
+      <c r="F29">
+        <v>340</v>
+      </c>
+      <c r="G29">
+        <v>338</v>
+      </c>
+      <c r="H29">
+        <v>342</v>
+      </c>
+      <c r="I29">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>0.1794</v>
+      </c>
+      <c r="C30">
+        <v>0.2074</v>
+      </c>
+      <c r="D30">
+        <v>0.18740000000000001</v>
+      </c>
+      <c r="E30">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="F30">
+        <v>323</v>
+      </c>
+      <c r="G30">
+        <v>317</v>
+      </c>
+      <c r="H30">
+        <v>322</v>
+      </c>
+      <c r="I30">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>0.1583</v>
+      </c>
+      <c r="C31">
+        <v>0.19739999999999999</v>
+      </c>
+      <c r="D31">
+        <v>0.1573</v>
+      </c>
+      <c r="E31">
+        <v>0.18540000000000001</v>
+      </c>
+      <c r="F31">
+        <v>338</v>
+      </c>
+      <c r="G31">
+        <v>336</v>
+      </c>
+      <c r="H31">
+        <v>340</v>
+      </c>
+      <c r="I31">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>0.1363</v>
+      </c>
+      <c r="C32">
+        <v>0.15129999999999999</v>
+      </c>
+      <c r="D32">
+        <v>0.1323</v>
+      </c>
+      <c r="E32">
+        <v>0.1663</v>
+      </c>
+      <c r="F32">
+        <v>322</v>
+      </c>
+      <c r="G32">
+        <v>320</v>
+      </c>
+      <c r="H32">
+        <v>322</v>
+      </c>
+      <c r="I32">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>0.1313</v>
+      </c>
+      <c r="C33">
+        <v>0.17330000000000001</v>
+      </c>
+      <c r="D33">
+        <v>0.13780000000000001</v>
+      </c>
+      <c r="E33">
+        <v>0.16830000000000001</v>
+      </c>
+      <c r="F33">
+        <v>331</v>
+      </c>
+      <c r="G33">
+        <v>324</v>
+      </c>
+      <c r="H33">
+        <v>334</v>
+      </c>
+      <c r="I33">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>0.14230000000000001</v>
+      </c>
+      <c r="C34">
+        <v>0.18340000000000001</v>
+      </c>
+      <c r="D34">
+        <v>0.14530000000000001</v>
+      </c>
+      <c r="E34">
+        <v>0.18140000000000001</v>
+      </c>
+      <c r="F34">
+        <v>330</v>
+      </c>
+      <c r="G34">
+        <v>327</v>
+      </c>
+      <c r="H34">
+        <v>322</v>
+      </c>
+      <c r="I34">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>11</v>
+      </c>
+      <c r="B35">
+        <v>0.17330000000000001</v>
+      </c>
+      <c r="C35">
+        <v>0.2104</v>
+      </c>
+      <c r="D35">
+        <v>0.1613</v>
+      </c>
+      <c r="E35">
+        <v>0.18640000000000001</v>
+      </c>
+      <c r="F35">
+        <v>314</v>
+      </c>
+      <c r="G35">
+        <v>311</v>
+      </c>
+      <c r="H35">
+        <v>316</v>
+      </c>
+      <c r="I35">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>12</v>
+      </c>
+      <c r="B36">
+        <v>0.1643</v>
+      </c>
+      <c r="C36">
+        <v>0.19939999999999999</v>
+      </c>
+      <c r="D36">
+        <v>0.1603</v>
+      </c>
+      <c r="E36">
+        <v>0.19239999999999999</v>
+      </c>
+      <c r="F36">
+        <v>328</v>
+      </c>
+      <c r="G36">
+        <v>322</v>
+      </c>
+      <c r="H36">
+        <v>328</v>
+      </c>
+      <c r="I36">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>13</v>
+      </c>
+      <c r="B37">
+        <v>0.1663</v>
+      </c>
+      <c r="C37">
+        <v>0.18440000000000001</v>
+      </c>
+      <c r="D37">
+        <v>0.1658</v>
+      </c>
+      <c r="E37">
+        <v>0.18590000000000001</v>
+      </c>
+      <c r="F37">
+        <v>321</v>
+      </c>
+      <c r="G37">
+        <v>322</v>
+      </c>
+      <c r="H37">
+        <v>323</v>
+      </c>
+      <c r="I37">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>14</v>
+      </c>
+      <c r="B38">
+        <v>0.1804</v>
+      </c>
+      <c r="C38">
+        <v>0.21540000000000001</v>
+      </c>
+      <c r="D38">
+        <v>0.1673</v>
+      </c>
+      <c r="E38">
+        <v>0.2074</v>
+      </c>
+      <c r="F38">
+        <v>321</v>
+      </c>
+      <c r="G38">
+        <v>316</v>
+      </c>
+      <c r="H38">
+        <v>321</v>
+      </c>
+      <c r="I38">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>15</v>
+      </c>
+      <c r="B39">
+        <v>0.1578</v>
+      </c>
+      <c r="C39">
+        <v>0.1789</v>
+      </c>
+      <c r="D39">
+        <v>0.15229999999999999</v>
+      </c>
+      <c r="E39">
+        <v>0.19040000000000001</v>
+      </c>
+      <c r="F39">
+        <v>331</v>
+      </c>
+      <c r="G39">
+        <v>326</v>
+      </c>
+      <c r="H39">
+        <v>325</v>
+      </c>
+      <c r="I39">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>16</v>
+      </c>
+      <c r="B40">
+        <v>0.1603</v>
+      </c>
+      <c r="C40">
+        <v>0.18840000000000001</v>
+      </c>
+      <c r="D40">
+        <v>0.1774</v>
+      </c>
+      <c r="E40">
+        <v>0.2044</v>
+      </c>
+      <c r="F40">
+        <v>321</v>
+      </c>
+      <c r="G40">
+        <v>318</v>
+      </c>
+      <c r="H40">
+        <v>315</v>
+      </c>
+      <c r="I40">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>17</v>
+      </c>
+      <c r="B41">
+        <v>0.15340000000000001</v>
+      </c>
+      <c r="C41">
+        <v>0.1895</v>
+      </c>
+      <c r="D41">
+        <v>0.15040000000000001</v>
+      </c>
+      <c r="E41">
+        <v>0.17745</v>
+      </c>
+      <c r="F41">
+        <v>334</v>
+      </c>
+      <c r="G41">
+        <v>328</v>
+      </c>
+      <c r="H41">
+        <v>338</v>
+      </c>
+      <c r="I41">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>18</v>
+      </c>
+      <c r="B42">
+        <v>0.1603</v>
+      </c>
+      <c r="C42">
+        <v>0.18540000000000001</v>
+      </c>
+      <c r="D42">
+        <v>0.1593</v>
+      </c>
+      <c r="E42">
+        <v>0.18240000000000001</v>
+      </c>
+      <c r="F42">
+        <v>329</v>
+      </c>
+      <c r="G42">
+        <v>331</v>
+      </c>
+      <c r="H42">
+        <v>328</v>
+      </c>
+      <c r="I42">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>19</v>
+      </c>
+      <c r="B43">
+        <v>0.17030000000000001</v>
+      </c>
+      <c r="C43">
+        <v>0.19139999999999999</v>
+      </c>
+      <c r="D43">
+        <v>0.1794</v>
+      </c>
+      <c r="E43">
+        <v>0.21440000000000001</v>
+      </c>
+      <c r="F43">
+        <v>311</v>
+      </c>
+      <c r="G43">
+        <v>303</v>
+      </c>
+      <c r="H43">
+        <v>309</v>
+      </c>
+      <c r="I43">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>20</v>
+      </c>
+      <c r="B44">
+        <v>0.14829999999999999</v>
+      </c>
+      <c r="C44">
+        <v>0.1764</v>
+      </c>
+      <c r="D44">
+        <v>0.14630000000000001</v>
+      </c>
+      <c r="E44">
+        <v>0.17130000000000001</v>
+      </c>
+      <c r="F44">
+        <v>323</v>
+      </c>
+      <c r="G44">
+        <v>316</v>
+      </c>
+      <c r="H44">
+        <v>321</v>
+      </c>
+      <c r="I44">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <f>AVERAGE(B25:B44)</f>
+        <v>0.15753999999999999</v>
+      </c>
+      <c r="C45">
+        <f>AVERAGE(C25:C44)</f>
+        <v>0.18819000000000002</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45:E45" si="0">AVERAGE(D25:D44)</f>
+        <v>0.15804499999999999</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>0.1885425</v>
+      </c>
+      <c r="F45">
+        <f>AVERAGE(F25:F44)/1000</f>
+        <v>0.32639999999999997</v>
+      </c>
+      <c r="G45">
+        <f>AVERAGE(G25:G44)/1000</f>
+        <v>0.32280000000000003</v>
+      </c>
+      <c r="H45">
+        <f>AVERAGE(H25:H44)/1000</f>
+        <v>0.32550000000000001</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ref="H45:I45" si="1">AVERAGE(I25:I44)/1000</f>
+        <v>0.32145000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="C48">
+        <v>0.27710000000000001</v>
+      </c>
+      <c r="D48">
+        <v>0.2084</v>
+      </c>
+      <c r="E48">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="F48">
+        <v>242</v>
+      </c>
+      <c r="G48">
+        <v>239</v>
+      </c>
+      <c r="H48">
+        <v>244</v>
+      </c>
+      <c r="I48">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>0.21840000000000001</v>
+      </c>
+      <c r="C49">
+        <v>0.26950000000000002</v>
+      </c>
+      <c r="D49">
+        <v>0.22140000000000001</v>
+      </c>
+      <c r="E49">
+        <v>0.29559999999999997</v>
+      </c>
+      <c r="F49">
+        <v>245</v>
+      </c>
+      <c r="G49">
+        <v>247</v>
+      </c>
+      <c r="H49">
+        <v>252</v>
+      </c>
+      <c r="I49">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <v>0.21590000000000001</v>
+      </c>
+      <c r="C50">
+        <v>0.22650000000000001</v>
+      </c>
+      <c r="D50">
+        <v>0.2104</v>
+      </c>
+      <c r="E50">
+        <v>0.24049999999999999</v>
+      </c>
+      <c r="F50">
+        <v>246</v>
+      </c>
+      <c r="G50">
+        <v>239</v>
+      </c>
+      <c r="H50">
+        <v>243</v>
+      </c>
+      <c r="I50">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="C51">
+        <v>0.26950000000000002</v>
+      </c>
+      <c r="D51">
+        <v>0.2545</v>
+      </c>
+      <c r="E51">
+        <v>0.30159999999999998</v>
+      </c>
+      <c r="F51">
+        <v>252</v>
+      </c>
+      <c r="G51">
+        <v>248</v>
+      </c>
+      <c r="H51">
+        <v>262</v>
+      </c>
+      <c r="I51">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>5</v>
+      </c>
+      <c r="B52">
+        <v>0.22650000000000001</v>
+      </c>
+      <c r="C52">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="D52">
+        <v>0.23549999999999999</v>
+      </c>
+      <c r="E52">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="F52">
+        <v>245</v>
+      </c>
+      <c r="G52">
+        <v>242</v>
+      </c>
+      <c r="H52">
+        <v>245</v>
+      </c>
+      <c r="I52">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <v>0.2059</v>
+      </c>
+      <c r="C53">
+        <v>0.2445</v>
+      </c>
+      <c r="D53">
+        <v>0.246</v>
+      </c>
+      <c r="E53">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="F53">
+        <v>244</v>
+      </c>
+      <c r="G53">
+        <v>237</v>
+      </c>
+      <c r="H53">
+        <v>245</v>
+      </c>
+      <c r="I53">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>7</v>
+      </c>
+      <c r="B54">
+        <v>0.23949999999999999</v>
+      </c>
+      <c r="C54">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="D54">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="E54">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="F54">
+        <v>246</v>
+      </c>
+      <c r="G54">
+        <v>239</v>
+      </c>
+      <c r="H54">
+        <v>239</v>
+      </c>
+      <c r="I54">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>8</v>
+      </c>
+      <c r="B55">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="C55">
+        <v>0.2366</v>
+      </c>
+      <c r="D55">
+        <v>0.192</v>
+      </c>
+      <c r="E55">
+        <v>0.24060000000000001</v>
+      </c>
+      <c r="F55">
+        <v>233</v>
+      </c>
+      <c r="G55">
+        <v>229</v>
+      </c>
+      <c r="H55">
+        <v>244</v>
+      </c>
+      <c r="I55">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>9</v>
+      </c>
+      <c r="B56">
+        <v>0.22239999999999999</v>
+      </c>
+      <c r="C56">
+        <v>0.28310000000000002</v>
+      </c>
+      <c r="D56">
+        <v>0.23050000000000001</v>
+      </c>
+      <c r="E56">
+        <v>0.29559999999999997</v>
+      </c>
+      <c r="F56">
+        <v>254</v>
+      </c>
+      <c r="G56">
+        <v>249</v>
+      </c>
+      <c r="H56">
+        <v>252</v>
+      </c>
+      <c r="I56">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>10</v>
+      </c>
+      <c r="B57">
+        <v>0.25950000000000001</v>
+      </c>
+      <c r="C57">
+        <v>0.30259999999999998</v>
+      </c>
+      <c r="D57">
+        <v>0.2525</v>
+      </c>
+      <c r="E57">
+        <v>0.29060000000000002</v>
+      </c>
+      <c r="F57">
+        <v>246</v>
+      </c>
+      <c r="G57">
+        <v>248</v>
+      </c>
+      <c r="H57">
+        <v>239</v>
+      </c>
+      <c r="I57">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>11</v>
+      </c>
+      <c r="B58">
+        <v>0.23350000000000001</v>
+      </c>
+      <c r="C58">
+        <v>0.26</v>
+      </c>
+      <c r="D58">
+        <v>0.2515</v>
+      </c>
+      <c r="E58">
+        <v>0.27450000000000002</v>
+      </c>
+      <c r="F58">
+        <v>252</v>
+      </c>
+      <c r="G58">
+        <v>245</v>
+      </c>
+      <c r="H58">
+        <v>254</v>
+      </c>
+      <c r="I58">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>12</v>
+      </c>
+      <c r="B59">
+        <v>0.23150000000000001</v>
+      </c>
+      <c r="C59">
+        <v>0.2555</v>
+      </c>
+      <c r="D59">
+        <v>0.21340000000000001</v>
+      </c>
+      <c r="E59">
+        <v>0.25850000000000001</v>
+      </c>
+      <c r="F59">
+        <v>247</v>
+      </c>
+      <c r="G59">
+        <v>243</v>
+      </c>
+      <c r="H59">
+        <v>245</v>
+      </c>
+      <c r="I59">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>13</v>
+      </c>
+      <c r="B60">
+        <v>0.24049999999999999</v>
+      </c>
+      <c r="C60">
+        <v>0.28160000000000002</v>
+      </c>
+      <c r="D60">
+        <v>0.21440000000000001</v>
+      </c>
+      <c r="E60">
+        <v>0.26950000000000002</v>
+      </c>
+      <c r="F60">
+        <v>254</v>
+      </c>
+      <c r="G60">
+        <v>248</v>
+      </c>
+      <c r="H60">
+        <v>248</v>
+      </c>
+      <c r="I60">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>14</v>
+      </c>
+      <c r="B61">
+        <v>0.23849999999999999</v>
+      </c>
+      <c r="C61">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="D61">
+        <v>0.2094</v>
+      </c>
+      <c r="E61">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="F61">
+        <v>248</v>
+      </c>
+      <c r="G61">
+        <v>245</v>
+      </c>
+      <c r="H61">
+        <v>244</v>
+      </c>
+      <c r="I61">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>15</v>
+      </c>
+      <c r="B62">
+        <v>0.2525</v>
+      </c>
+      <c r="C62">
+        <v>0.26050000000000001</v>
+      </c>
+      <c r="D62">
+        <v>0.24149999999999999</v>
+      </c>
+      <c r="E62">
+        <v>0.25950000000000001</v>
+      </c>
+      <c r="F62">
+        <v>242</v>
+      </c>
+      <c r="G62">
+        <v>241</v>
+      </c>
+      <c r="H62">
+        <v>236</v>
+      </c>
+      <c r="I62">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>16</v>
+      </c>
+      <c r="B63">
+        <v>0.26150000000000001</v>
+      </c>
+      <c r="C63">
+        <v>0.31809999999999999</v>
+      </c>
+      <c r="D63">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="E63">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="F63">
+        <v>234</v>
+      </c>
+      <c r="G63">
+        <v>232</v>
+      </c>
+      <c r="H63">
+        <v>240</v>
+      </c>
+      <c r="I63">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>17</v>
+      </c>
+      <c r="B64">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="C64">
+        <v>0.27710000000000001</v>
+      </c>
+      <c r="D64">
+        <v>0.23849999999999999</v>
+      </c>
+      <c r="E64">
+        <v>0.28760000000000002</v>
+      </c>
+      <c r="F64">
+        <v>244</v>
+      </c>
+      <c r="G64">
+        <v>240</v>
+      </c>
+      <c r="H64">
+        <v>238</v>
+      </c>
+      <c r="I64">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>18</v>
+      </c>
+      <c r="B65">
+        <v>0.21590000000000001</v>
+      </c>
+      <c r="C65">
+        <v>0.26</v>
+      </c>
+      <c r="D65">
+        <v>0.2084</v>
+      </c>
+      <c r="E65">
+        <v>0.2485</v>
+      </c>
+      <c r="F65">
+        <v>248</v>
+      </c>
+      <c r="G65">
+        <v>245</v>
+      </c>
+      <c r="H65">
+        <v>249</v>
+      </c>
+      <c r="I65">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>19</v>
+      </c>
+      <c r="B66">
+        <v>0.23960000000000001</v>
+      </c>
+      <c r="C66">
+        <v>0.26465</v>
+      </c>
+      <c r="D66">
+        <v>0.24510000000000001</v>
+      </c>
+      <c r="E66">
+        <v>0.27065</v>
+      </c>
+      <c r="F66">
+        <v>245</v>
+      </c>
+      <c r="G66">
+        <v>249</v>
+      </c>
+      <c r="H66">
+        <v>253</v>
+      </c>
+      <c r="I66">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>20</v>
+      </c>
+      <c r="B67">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="C67">
+        <v>0.25850000000000001</v>
+      </c>
+      <c r="D67">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="E67">
+        <v>0.28810000000000002</v>
+      </c>
+      <c r="F67">
+        <v>247</v>
+      </c>
+      <c r="G67">
+        <v>239</v>
+      </c>
+      <c r="H67">
+        <v>243</v>
+      </c>
+      <c r="I67">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <f>AVERAGE(B48:B67)</f>
+        <v>0.23228000000000004</v>
+      </c>
+      <c r="C68">
+        <f>AVERAGE(C48:C67)</f>
+        <v>0.26746749999999997</v>
+      </c>
+      <c r="D68">
+        <f>AVERAGE(D48:D67)</f>
+        <v>0.22931999999999997</v>
+      </c>
+      <c r="E68">
+        <f>AVERAGE(E48:E67)</f>
+        <v>0.26806750000000001</v>
+      </c>
+      <c r="F68">
+        <f>AVERAGE(F48:F67)/1000</f>
+        <v>0.2457</v>
+      </c>
+      <c r="G68">
+        <f t="shared" ref="F68:G68" si="2">AVERAGE(G48:G67)/1000</f>
+        <v>0.2422</v>
+      </c>
+      <c r="H68">
+        <f>AVERAGE(H48:H67)/1000</f>
+        <v>0.24575</v>
+      </c>
+      <c r="I68">
+        <f>AVERAGE(I48:I67)/1000</f>
+        <v>0.24249999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>0.69389999999999996</v>
+      </c>
+      <c r="C71">
+        <v>0.70089999999999997</v>
+      </c>
+      <c r="D71">
+        <v>0.6623</v>
+      </c>
+      <c r="E71">
+        <v>0.69689999999999996</v>
+      </c>
+      <c r="F71">
+        <v>159</v>
+      </c>
+      <c r="G71">
+        <v>90</v>
+      </c>
+      <c r="H71">
+        <v>145</v>
+      </c>
+      <c r="I71">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72">
+        <v>0.71025000000000005</v>
+      </c>
+      <c r="C72">
+        <v>0.70725000000000005</v>
+      </c>
+      <c r="D72">
+        <v>0.70525000000000004</v>
+      </c>
+      <c r="E72">
+        <v>0.70125000000000004</v>
+      </c>
+      <c r="F72">
+        <v>162</v>
+      </c>
+      <c r="G72">
+        <v>82</v>
+      </c>
+      <c r="H72">
+        <v>162</v>
+      </c>
+      <c r="I72">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>3</v>
+      </c>
+      <c r="B73">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="C73">
+        <v>0.72089999999999999</v>
+      </c>
+      <c r="D73">
+        <v>0.70589999999999997</v>
+      </c>
+      <c r="E73">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="F73">
+        <v>184</v>
+      </c>
+      <c r="G73">
+        <v>89</v>
+      </c>
+      <c r="H73">
+        <v>174</v>
+      </c>
+      <c r="I73">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>4</v>
+      </c>
+      <c r="B74">
+        <v>0.71525000000000005</v>
+      </c>
+      <c r="C74">
+        <v>0.7228</v>
+      </c>
+      <c r="D74">
+        <v>0.71425000000000005</v>
+      </c>
+      <c r="E74">
+        <v>0.71625000000000005</v>
+      </c>
+      <c r="F74">
+        <v>165</v>
+      </c>
+      <c r="G74">
+        <v>76</v>
+      </c>
+      <c r="H74">
+        <v>142</v>
+      </c>
+      <c r="I74">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>5</v>
+      </c>
+      <c r="B75">
+        <v>0.76539999999999997</v>
+      </c>
+      <c r="C75">
+        <v>0.75539999999999996</v>
+      </c>
+      <c r="D75">
+        <v>0.74034999999999995</v>
+      </c>
+      <c r="E75">
+        <v>0.76939999999999997</v>
+      </c>
+      <c r="F75">
+        <v>176</v>
+      </c>
+      <c r="G75">
+        <v>93</v>
+      </c>
+      <c r="H75">
+        <v>149</v>
+      </c>
+      <c r="I75">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>6</v>
+      </c>
+      <c r="B76">
+        <v>0.70425000000000004</v>
+      </c>
+      <c r="C76">
+        <v>0.69974999999999998</v>
+      </c>
+      <c r="D76">
+        <v>0.68525000000000003</v>
+      </c>
+      <c r="E76">
+        <v>0.70074999999999998</v>
+      </c>
+      <c r="F76">
+        <v>155</v>
+      </c>
+      <c r="G76">
+        <v>78</v>
+      </c>
+      <c r="H76">
+        <v>138</v>
+      </c>
+      <c r="I76">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>7</v>
+      </c>
+      <c r="B77">
+        <v>0.74334999999999996</v>
+      </c>
+      <c r="C77">
+        <v>0.72935000000000005</v>
+      </c>
+      <c r="D77">
+        <v>0.69225000000000003</v>
+      </c>
+      <c r="E77">
+        <v>0.72835000000000005</v>
+      </c>
+      <c r="F77">
+        <v>161</v>
+      </c>
+      <c r="G77">
+        <v>75</v>
+      </c>
+      <c r="H77">
+        <v>157</v>
+      </c>
+      <c r="I77">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>8</v>
+      </c>
+      <c r="B78">
+        <v>0.73434999999999995</v>
+      </c>
+      <c r="C78">
+        <v>0.74034999999999995</v>
+      </c>
+      <c r="D78">
+        <v>0.71625000000000005</v>
+      </c>
+      <c r="E78">
+        <v>0.70725000000000005</v>
+      </c>
+      <c r="F78">
+        <v>167</v>
+      </c>
+      <c r="G78">
+        <v>76</v>
+      </c>
+      <c r="H78">
+        <v>137</v>
+      </c>
+      <c r="I78">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>9</v>
+      </c>
+      <c r="B79">
+        <v>0.72130000000000005</v>
+      </c>
+      <c r="C79">
+        <v>0.72885</v>
+      </c>
+      <c r="D79">
+        <v>0.67669999999999997</v>
+      </c>
+      <c r="E79">
+        <v>0.72885</v>
+      </c>
+      <c r="F79">
+        <v>152</v>
+      </c>
+      <c r="G79">
+        <v>86</v>
+      </c>
+      <c r="H79">
+        <v>161</v>
+      </c>
+      <c r="I79">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>10</v>
+      </c>
+      <c r="B80">
+        <v>0.69874999999999998</v>
+      </c>
+      <c r="C80">
+        <v>0.7198</v>
+      </c>
+      <c r="D80">
+        <v>0.68689999999999996</v>
+      </c>
+      <c r="E80">
+        <v>0.68989999999999996</v>
+      </c>
+      <c r="F80">
+        <v>150</v>
+      </c>
+      <c r="G80">
+        <v>84</v>
+      </c>
+      <c r="H80">
+        <v>151</v>
+      </c>
+      <c r="I80">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>11</v>
+      </c>
+      <c r="B81">
+        <v>0.70874999999999999</v>
+      </c>
+      <c r="C81">
+        <v>0.74485000000000001</v>
+      </c>
+      <c r="D81">
+        <v>0.70525000000000004</v>
+      </c>
+      <c r="E81">
+        <v>0.74634999999999996</v>
+      </c>
+      <c r="F81">
+        <v>160</v>
+      </c>
+      <c r="G81">
+        <v>73</v>
+      </c>
+      <c r="H81">
+        <v>149</v>
+      </c>
+      <c r="I81">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>12</v>
+      </c>
+      <c r="B82">
+        <v>0.72040000000000004</v>
+      </c>
+      <c r="C82">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="D82">
+        <v>0.70489999999999997</v>
+      </c>
+      <c r="E82">
+        <v>0.70889999999999997</v>
+      </c>
+      <c r="F82">
+        <v>161</v>
+      </c>
+      <c r="G82">
+        <v>75</v>
+      </c>
+      <c r="H82">
+        <v>156</v>
+      </c>
+      <c r="I82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>13</v>
+      </c>
+      <c r="B83">
+        <v>0.72935000000000005</v>
+      </c>
+      <c r="C83">
+        <v>0.73434999999999995</v>
+      </c>
+      <c r="D83">
+        <v>0.70974999999999999</v>
+      </c>
+      <c r="E83">
+        <v>0.74134999999999995</v>
+      </c>
+      <c r="F83">
+        <v>148</v>
+      </c>
+      <c r="G83">
+        <v>68</v>
+      </c>
+      <c r="H83">
+        <v>145</v>
+      </c>
+      <c r="I83">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>14</v>
+      </c>
+      <c r="B84">
+        <v>0.70825000000000005</v>
+      </c>
+      <c r="C84">
+        <v>0.71730000000000005</v>
+      </c>
+      <c r="D84">
+        <v>0.68825000000000003</v>
+      </c>
+      <c r="E84">
+        <v>0.72330000000000005</v>
+      </c>
+      <c r="F84">
+        <v>168</v>
+      </c>
+      <c r="G84">
+        <v>84</v>
+      </c>
+      <c r="H84">
+        <v>171</v>
+      </c>
+      <c r="I84">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>15</v>
+      </c>
+      <c r="B85">
+        <v>0.69925000000000004</v>
+      </c>
+      <c r="C85">
+        <v>0.71525000000000005</v>
+      </c>
+      <c r="D85">
+        <v>0.71625000000000005</v>
+      </c>
+      <c r="E85">
+        <v>0.71425000000000005</v>
+      </c>
+      <c r="F85">
+        <v>171</v>
+      </c>
+      <c r="G85">
+        <v>81</v>
+      </c>
+      <c r="H85">
+        <v>157</v>
+      </c>
+      <c r="I85">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>16</v>
+      </c>
+      <c r="B86">
+        <v>0.73334999999999995</v>
+      </c>
+      <c r="C86">
+        <v>0.74034999999999995</v>
+      </c>
+      <c r="D86">
+        <v>0.71274999999999999</v>
+      </c>
+      <c r="E86">
+        <v>0.73134999999999994</v>
+      </c>
+      <c r="F86">
+        <v>158</v>
+      </c>
+      <c r="G86">
+        <v>85</v>
+      </c>
+      <c r="H86">
+        <v>173</v>
+      </c>
+      <c r="I86">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>17</v>
+      </c>
+      <c r="B87">
+        <v>0.69074999999999998</v>
+      </c>
+      <c r="C87">
+        <v>0.69074999999999998</v>
+      </c>
+      <c r="D87">
+        <v>0.68425000000000002</v>
+      </c>
+      <c r="E87">
+        <v>0.70674999999999999</v>
+      </c>
+      <c r="F87">
+        <v>143</v>
+      </c>
+      <c r="G87">
+        <v>82</v>
+      </c>
+      <c r="H87">
+        <v>147</v>
+      </c>
+      <c r="I87">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>18</v>
+      </c>
+      <c r="B88">
+        <v>0.76239999999999997</v>
+      </c>
+      <c r="C88">
+        <v>0.8095</v>
+      </c>
+      <c r="D88">
+        <v>0.74034999999999995</v>
+      </c>
+      <c r="E88">
+        <v>0.77139999999999997</v>
+      </c>
+      <c r="F88">
+        <v>149</v>
+      </c>
+      <c r="G88">
+        <v>77</v>
+      </c>
+      <c r="H88">
+        <v>153</v>
+      </c>
+      <c r="I88">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>19</v>
+      </c>
+      <c r="B89">
+        <v>0.74434999999999996</v>
+      </c>
+      <c r="C89">
+        <v>0.74834999999999996</v>
+      </c>
+      <c r="D89">
+        <v>0.71830000000000005</v>
+      </c>
+      <c r="E89">
+        <v>0.74285000000000001</v>
+      </c>
+      <c r="F89">
+        <v>161</v>
+      </c>
+      <c r="G89">
+        <v>80</v>
+      </c>
+      <c r="H89">
+        <v>159</v>
+      </c>
+      <c r="I89">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>20</v>
+      </c>
+      <c r="B90">
+        <v>0.72030000000000005</v>
+      </c>
+      <c r="C90">
+        <v>0.70074999999999998</v>
+      </c>
+      <c r="D90">
+        <v>0.68925000000000003</v>
+      </c>
+      <c r="E90">
+        <v>0.71930000000000005</v>
+      </c>
+      <c r="F90">
+        <v>159</v>
+      </c>
+      <c r="G90">
+        <v>78</v>
+      </c>
+      <c r="H90">
+        <v>164</v>
+      </c>
+      <c r="I90">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B91">
+        <f>AVERAGE(B71:B90)</f>
+        <v>0.72194749999999996</v>
+      </c>
+      <c r="C91">
+        <f t="shared" ref="C91:E91" si="3">AVERAGE(C71:C90)</f>
+        <v>0.72763999999999984</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="3"/>
+        <v>0.70273499999999989</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="3"/>
+        <v>0.72368500000000002</v>
+      </c>
+      <c r="F91">
+        <f>AVERAGE(F71:F90)/1000</f>
+        <v>0.16044999999999998</v>
+      </c>
+      <c r="G91">
+        <f t="shared" ref="G91:I91" si="4">AVERAGE(G71:G90)/1000</f>
+        <v>8.0599999999999991E-2</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="4"/>
+        <v>0.1545</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="4"/>
+        <v>7.6499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94">
+        <v>0.89975000000000005</v>
+      </c>
+      <c r="C94">
+        <v>0.90776999999999997</v>
+      </c>
+      <c r="D94">
+        <v>0.87770000000000004</v>
+      </c>
+      <c r="E94">
+        <v>0.89875000000000005</v>
+      </c>
+      <c r="F94">
+        <v>152</v>
+      </c>
+      <c r="G94">
+        <v>39</v>
+      </c>
+      <c r="H94">
+        <v>151</v>
+      </c>
+      <c r="I94">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>2</v>
+      </c>
+      <c r="B95">
+        <v>0.909775</v>
+      </c>
+      <c r="C95">
+        <v>0.91979999999999995</v>
+      </c>
+      <c r="D95">
+        <v>0.90776999999999997</v>
+      </c>
+      <c r="E95">
+        <v>0.90576500000000004</v>
+      </c>
+      <c r="F95">
+        <v>130</v>
+      </c>
+      <c r="G95">
+        <v>28</v>
+      </c>
+      <c r="H95">
+        <v>148</v>
+      </c>
+      <c r="I95">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>3</v>
+      </c>
+      <c r="B96">
+        <v>0.92982500000000001</v>
+      </c>
+      <c r="C96">
+        <v>0.92581500000000005</v>
+      </c>
+      <c r="D96">
+        <v>0.90476000000000001</v>
+      </c>
+      <c r="E96">
+        <v>0.91779500000000003</v>
+      </c>
+      <c r="F96">
+        <v>199</v>
+      </c>
+      <c r="G96">
+        <v>33</v>
+      </c>
+      <c r="H96">
+        <v>169</v>
+      </c>
+      <c r="I96">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>4</v>
+      </c>
+      <c r="B97">
+        <v>0.91378499999999996</v>
+      </c>
+      <c r="C97">
+        <v>0.92180499999999999</v>
+      </c>
+      <c r="D97">
+        <v>0.90676500000000004</v>
+      </c>
+      <c r="E97">
+        <v>0.91879999999999995</v>
+      </c>
+      <c r="F97">
+        <v>146</v>
+      </c>
+      <c r="G97">
+        <v>40</v>
+      </c>
+      <c r="H97">
+        <v>157</v>
+      </c>
+      <c r="I97">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>5</v>
+      </c>
+      <c r="B98">
+        <v>0.91779500000000003</v>
+      </c>
+      <c r="C98">
+        <v>0.91779500000000003</v>
+      </c>
+      <c r="D98">
+        <v>0.91478499999999996</v>
+      </c>
+      <c r="E98">
+        <v>0.92681500000000006</v>
+      </c>
+      <c r="F98">
+        <v>159</v>
+      </c>
+      <c r="G98">
+        <v>37</v>
+      </c>
+      <c r="H98">
+        <v>159</v>
+      </c>
+      <c r="I98">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>6</v>
+      </c>
+      <c r="B99">
+        <v>0.89775000000000005</v>
+      </c>
+      <c r="C99">
+        <v>0.91979999999999995</v>
+      </c>
+      <c r="D99">
         <v>0.88575000000000004</v>
       </c>
-      <c r="G2">
-        <v>0.91898000000000002</v>
-      </c>
-      <c r="H2">
-        <v>0.90547</v>
-      </c>
-      <c r="I2">
-        <v>0.91822000000000004</v>
-      </c>
-      <c r="J2">
-        <v>0.88370000000000004</v>
-      </c>
-      <c r="K2">
-        <v>0.90110500000000004</v>
-      </c>
-      <c r="L2">
-        <v>0.93532000000000004</v>
-      </c>
-      <c r="M2">
-        <v>0.89770000000000005</v>
-      </c>
-      <c r="N2">
-        <v>0.90764999999999996</v>
-      </c>
-      <c r="O2">
-        <v>0.91585499999999997</v>
-      </c>
-      <c r="P2">
-        <v>0.91842999999999997</v>
-      </c>
-      <c r="Q2">
-        <v>0.90246999999999999</v>
-      </c>
-      <c r="R2">
-        <v>0.91110999999999998</v>
-      </c>
-      <c r="S2">
-        <v>0.91041499999999997</v>
-      </c>
-      <c r="T2">
-        <v>0.89680000000000004</v>
-      </c>
-      <c r="U2">
-        <f>SUM(A2:T2)/20</f>
-        <v>0.90737650000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="B3">
-        <v>0.1193</v>
-      </c>
-      <c r="C3">
-        <v>0.11625000000000001</v>
-      </c>
-      <c r="D3">
-        <v>0.10025000000000001</v>
-      </c>
-      <c r="E3">
-        <v>0.1028</v>
-      </c>
-      <c r="F3">
-        <v>0.13034999999999999</v>
-      </c>
-      <c r="G3">
-        <v>0.1124</v>
-      </c>
-      <c r="H3">
-        <v>0.10324999999999999</v>
-      </c>
-      <c r="I3">
-        <v>7.8200000000000006E-2</v>
-      </c>
-      <c r="J3">
-        <v>9.4799999999999995E-2</v>
-      </c>
-      <c r="K3">
-        <v>0.12230000000000001</v>
-      </c>
-      <c r="L3">
-        <v>0.1173</v>
-      </c>
-      <c r="M3">
-        <v>0.1114</v>
-      </c>
-      <c r="N3">
-        <v>0.12385</v>
-      </c>
-      <c r="O3">
-        <v>0.11125</v>
-      </c>
-      <c r="P3">
-        <v>0.11785</v>
-      </c>
-      <c r="Q3">
-        <v>9.9500000000000005E-2</v>
-      </c>
-      <c r="R3">
-        <v>0.1203</v>
-      </c>
-      <c r="S3">
-        <v>0.12805</v>
-      </c>
-      <c r="T3">
-        <v>9.98E-2</v>
-      </c>
-      <c r="U3">
-        <f>SUM(A3:T3)/20</f>
-        <v>0.11056000000000002</v>
+      <c r="E99">
+        <v>0.91178000000000003</v>
+      </c>
+      <c r="F99">
+        <v>143</v>
+      </c>
+      <c r="G99">
+        <v>38</v>
+      </c>
+      <c r="H99">
+        <v>139</v>
+      </c>
+      <c r="I99">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>7</v>
+      </c>
+      <c r="B100">
+        <v>0.92281000000000002</v>
+      </c>
+      <c r="C100">
+        <v>0.93483499999999997</v>
+      </c>
+      <c r="D100">
+        <v>0.92281000000000002</v>
+      </c>
+      <c r="E100">
+        <v>0.92481000000000002</v>
+      </c>
+      <c r="F100">
+        <v>142</v>
+      </c>
+      <c r="G100">
+        <v>27</v>
+      </c>
+      <c r="H100">
+        <v>161</v>
+      </c>
+      <c r="I100">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>8</v>
+      </c>
+      <c r="B101">
+        <v>0.90827500000000005</v>
+      </c>
+      <c r="C101">
+        <v>0.90776999999999997</v>
+      </c>
+      <c r="D101">
+        <v>0.90075000000000005</v>
+      </c>
+      <c r="E101">
+        <v>0.90276000000000001</v>
+      </c>
+      <c r="F101">
+        <v>127</v>
+      </c>
+      <c r="G101">
+        <v>35</v>
+      </c>
+      <c r="H101">
+        <v>141</v>
+      </c>
+      <c r="I101">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>9</v>
+      </c>
+      <c r="B102">
+        <v>0.91278499999999996</v>
+      </c>
+      <c r="C102">
+        <v>0.910775</v>
+      </c>
+      <c r="D102">
+        <v>0.90776999999999997</v>
+      </c>
+      <c r="E102">
+        <v>0.91478499999999996</v>
+      </c>
+      <c r="F102">
+        <v>169</v>
+      </c>
+      <c r="G102">
+        <v>31</v>
+      </c>
+      <c r="H102">
+        <v>158</v>
+      </c>
+      <c r="I102">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>10</v>
+      </c>
+      <c r="B103">
+        <v>0.89175000000000004</v>
+      </c>
+      <c r="C103">
+        <v>0.88270000000000004</v>
+      </c>
+      <c r="D103">
+        <v>0.85965000000000003</v>
+      </c>
+      <c r="E103">
+        <v>0.87870000000000004</v>
+      </c>
+      <c r="F103">
+        <v>135</v>
+      </c>
+      <c r="G103">
+        <v>41</v>
+      </c>
+      <c r="H103">
+        <v>133</v>
+      </c>
+      <c r="I103">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>11</v>
+      </c>
+      <c r="B104">
+        <v>0.90576500000000004</v>
+      </c>
+      <c r="C104">
+        <v>0.90276000000000001</v>
+      </c>
+      <c r="D104">
+        <v>0.88375000000000004</v>
+      </c>
+      <c r="E104">
+        <v>0.89675000000000005</v>
+      </c>
+      <c r="F104">
+        <v>161</v>
+      </c>
+      <c r="G104">
+        <v>44</v>
+      </c>
+      <c r="H104">
+        <v>158</v>
+      </c>
+      <c r="I104">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>12</v>
+      </c>
+      <c r="B105">
+        <v>0.93784500000000004</v>
+      </c>
+      <c r="C105">
+        <v>0.96190500000000001</v>
+      </c>
+      <c r="D105">
+        <v>0.93082500000000001</v>
+      </c>
+      <c r="E105">
+        <v>0.95538999999999996</v>
+      </c>
+      <c r="F105">
+        <v>175</v>
+      </c>
+      <c r="G105">
+        <v>21</v>
+      </c>
+      <c r="H105">
+        <v>158</v>
+      </c>
+      <c r="I105">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>13</v>
+      </c>
+      <c r="B106">
+        <v>0.88675000000000004</v>
+      </c>
+      <c r="C106">
+        <v>0.90175499999999997</v>
+      </c>
+      <c r="D106">
+        <v>0.88475000000000004</v>
+      </c>
+      <c r="E106">
+        <v>0.89375000000000004</v>
+      </c>
+      <c r="F106">
+        <v>150</v>
+      </c>
+      <c r="G106">
+        <v>44</v>
+      </c>
+      <c r="H106">
+        <v>153</v>
+      </c>
+      <c r="I106">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>14</v>
+      </c>
+      <c r="B107">
+        <v>0.91178000000000003</v>
+      </c>
+      <c r="C107">
+        <v>0.91979999999999995</v>
+      </c>
+      <c r="D107">
+        <v>0.89275000000000004</v>
+      </c>
+      <c r="E107">
+        <v>0.90476000000000001</v>
+      </c>
+      <c r="F107">
+        <v>143</v>
+      </c>
+      <c r="G107">
+        <v>31</v>
+      </c>
+      <c r="H107">
+        <v>160</v>
+      </c>
+      <c r="I107">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>15</v>
+      </c>
+      <c r="B108">
+        <v>0.92581500000000005</v>
+      </c>
+      <c r="C108">
+        <v>0.91478499999999996</v>
+      </c>
+      <c r="D108">
+        <v>0.90776999999999997</v>
+      </c>
+      <c r="E108">
+        <v>0.91578999999999999</v>
+      </c>
+      <c r="F108">
+        <v>162</v>
+      </c>
+      <c r="G108">
+        <v>35</v>
+      </c>
+      <c r="H108">
+        <v>156</v>
+      </c>
+      <c r="I108">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>16</v>
+      </c>
+      <c r="B109">
+        <v>0.92681500000000006</v>
+      </c>
+      <c r="C109">
+        <v>0.93179999999999996</v>
+      </c>
+      <c r="D109">
+        <v>0.90576500000000004</v>
+      </c>
+      <c r="E109">
+        <v>0.92781999999999998</v>
+      </c>
+      <c r="F109">
+        <v>152</v>
+      </c>
+      <c r="G109">
+        <v>35</v>
+      </c>
+      <c r="H109">
+        <v>170</v>
+      </c>
+      <c r="I109">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>17</v>
+      </c>
+      <c r="B110">
+        <v>0.908775</v>
+      </c>
+      <c r="C110">
+        <v>0.90676500000000004</v>
+      </c>
+      <c r="D110">
+        <v>0.87870000000000004</v>
+      </c>
+      <c r="E110">
+        <v>0.90376000000000001</v>
+      </c>
+      <c r="F110">
+        <v>149</v>
+      </c>
+      <c r="G110">
+        <v>41</v>
+      </c>
+      <c r="H110">
+        <v>145</v>
+      </c>
+      <c r="I110">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>18</v>
+      </c>
+      <c r="B111">
+        <v>0.92281000000000002</v>
+      </c>
+      <c r="C111">
+        <v>0.92281000000000002</v>
+      </c>
+      <c r="D111">
+        <v>0.89575000000000005</v>
+      </c>
+      <c r="E111">
+        <v>0.92481000000000002</v>
+      </c>
+      <c r="F111">
+        <v>162</v>
+      </c>
+      <c r="G111">
+        <v>43</v>
+      </c>
+      <c r="H111">
+        <v>157</v>
+      </c>
+      <c r="I111">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>19</v>
+      </c>
+      <c r="B112">
+        <v>0.908775</v>
+      </c>
+      <c r="C112">
+        <v>0.90927500000000006</v>
+      </c>
+      <c r="D112">
+        <v>0.88070000000000004</v>
+      </c>
+      <c r="E112">
+        <v>0.908775</v>
+      </c>
+      <c r="F112">
+        <v>154</v>
+      </c>
+      <c r="G112">
+        <v>44</v>
+      </c>
+      <c r="H112">
+        <v>153</v>
+      </c>
+      <c r="I112">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>20</v>
+      </c>
+      <c r="B113">
+        <v>0.91278499999999996</v>
+      </c>
+      <c r="C113">
+        <v>0.92079999999999995</v>
+      </c>
+      <c r="D113">
+        <v>0.89675000000000005</v>
+      </c>
+      <c r="E113">
+        <v>0.910775</v>
+      </c>
+      <c r="F113">
+        <v>168</v>
+      </c>
+      <c r="G113">
+        <v>41</v>
+      </c>
+      <c r="H113">
+        <v>158</v>
+      </c>
+      <c r="I113">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B114">
+        <f>AVERAGE(B94:B113)</f>
+        <v>0.9126107499999998</v>
+      </c>
+      <c r="C114">
+        <f t="shared" ref="C114:E114" si="5">AVERAGE(C94:C113)</f>
+        <v>0.91706599999999994</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="5"/>
+        <v>0.89730100000000024</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="5"/>
+        <v>0.912157</v>
+      </c>
+      <c r="F114">
+        <f>AVERAGE(F94:F113)/1000</f>
+        <v>0.15390000000000001</v>
+      </c>
+      <c r="G114">
+        <f t="shared" ref="G114:I114" si="6">AVERAGE(G94:G113)/1000</f>
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="6"/>
+        <v>0.15419999999999998</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="6"/>
+        <v>3.3149999999999999E-2</v>
       </c>
     </row>
   </sheetData>
